--- a/pubmedinfo/ESMO-Clinical Practice Guideline_pubmed_results.xlsx
+++ b/pubmedinfo/ESMO-Clinical Practice Guideline_pubmed_results.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="28800" windowHeight="11500"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2167,14 +2180,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2182,24 +2200,361 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2223,51 +2578,323 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2278,10 +2905,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2319,71 +2946,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2411,7 +3038,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2434,11 +3061,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2447,13 +3074,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2463,7 +3090,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2472,7 +3099,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2481,7 +3108,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2489,10 +3116,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2552,3580 +3179,3546 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1442307692308" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.0096153846154" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.4326923076923" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.4326923076923" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.4326923076923" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.72115384615385" style="3" customWidth="1"/>
+    <col min="8" max="13" width="12.4326923076923" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="22.5" customHeight="1" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3">
+    <row r="2" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A2" s="6">
         <v>87</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>2021</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>34364998</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3">
+    <row r="3" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A3" s="6">
         <v>71</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>2021</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>34219000</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="3">
+    <row r="4" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A4" s="6">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>2021</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>34062485</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3">
+    <row r="5" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A5" s="6">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>2021</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>34000244</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3">
+    <row r="6" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A6" s="6">
         <v>46</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>2021</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>33887690</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="3">
+    <row r="7" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>2021</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>33882206</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="3">
+    <row r="8" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A8" s="6">
         <v>38</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>2021</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>33794206</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="3">
+    <row r="9" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A9" s="6">
         <v>77</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>2021</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>33741442</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="3">
+    <row r="10" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A10" s="6">
         <v>79</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>2021</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>33676601</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="3">
+    <row r="11" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A11" s="6">
         <v>42</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>2021</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>33514405</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="3">
+    <row r="12" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A12" s="6">
         <v>67</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>2021</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>33480963</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="3">
+    <row r="13" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A13" s="6">
         <v>80</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>2021</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>33462450</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="3">
+    <row r="14" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A14" s="6">
         <v>32</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>2021</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>33385521</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="3">
+    <row r="15" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A15" s="6">
         <v>69</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>2020</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>33278935</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="3">
+    <row r="16" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A16" s="6">
         <v>37</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="6">
         <v>2021</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="6">
         <v>33246021</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="3">
+    <row r="17" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A17" s="6">
         <v>41</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="6">
         <v>2021</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="6">
         <v>33230905</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="3">
+    <row r="18" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A18" s="6">
         <v>21</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="6">
         <v>2020</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="6">
         <v>33078998</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="3">
+    <row r="19" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="6">
         <v>2020</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="6">
         <v>32979513</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="3">
+    <row r="20" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A20" s="6">
         <v>82</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="6">
         <v>2020</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="6">
         <v>32861273</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="3">
+    <row r="21" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A21" s="6">
         <v>86</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="6">
         <v>2020</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="6">
         <v>32801018</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="3">
+    <row r="22" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A22" s="6">
         <v>66</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="6">
         <v>2020</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="6">
         <v>32678716</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="3">
+    <row r="23" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A23" s="6">
         <v>61</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="6">
         <v>2020</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="6">
         <v>32468955</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="3">
+    <row r="24" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A24" s="6">
         <v>3</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="6">
         <v>2020</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="6">
         <v>32171426</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4" t="s">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="3">
+    <row r="25" ht="17.25" customHeight="1" spans="1:12">
+      <c r="A25" s="6">
         <v>11</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="6">
         <v>2019</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="6">
         <v>31933579</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="3">
+    </row>
+    <row r="26" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A26" s="6">
         <v>85</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="6">
         <v>2020</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="6">
         <v>31908301</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="3">
+    <row r="27" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A27" s="6">
         <v>1</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="6">
         <v>2020</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="6">
         <v>31859246</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="3">
+    <row r="28" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A28" s="6">
         <v>28</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="6">
         <v>2020</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="6">
         <v>31826360</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="3">
+    <row r="29" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A29" s="6">
         <v>6</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="6">
         <v>2020</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="6">
         <v>31825569</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4" t="s">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="3">
+    <row r="30" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A30" s="6">
         <v>63</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="6">
         <v>2020</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="6">
         <v>31825192</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4" t="s">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="3">
+    <row r="31" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A31" s="6">
         <v>70</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="6">
         <v>2020</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="6">
         <v>31786121</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4" t="s">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="3">
+    <row r="32" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A32" s="6">
         <v>33</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="6">
         <v>2019</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="6">
         <v>31668850</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4" t="s">
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="3">
+    <row r="33" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A33" s="6">
         <v>23</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="6">
         <v>2020</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="6">
         <v>31447286</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="3">
+    <row r="34" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A34" s="6">
         <v>83</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="6">
         <v>2019</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="6">
         <v>31446213</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="3">
+    <row r="35" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A35" s="6">
         <v>27</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="6">
         <v>2019</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="6">
         <v>31166679</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4" t="s">
+      <c r="L35" s="2"/>
+      <c r="M35" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="3">
+    <row r="36" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A36" s="6">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="6">
         <v>2019</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="6">
         <v>31091374</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4" t="s">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="3">
+    <row r="37" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A37" s="6">
         <v>81</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="6">
         <v>2019</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="6">
         <v>30689707</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="3">
+    <row r="38" ht="17.25" customHeight="1" spans="1:11">
+      <c r="A38" s="6">
         <v>92</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="6">
         <v>2018</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="6">
         <v>30627694</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="3">
+    </row>
+    <row r="39" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A39" s="6">
         <v>2</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="6">
         <v>2018</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="6">
         <v>30345906</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4" t="s">
+      <c r="L39" s="2"/>
+      <c r="M39" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="3">
+    <row r="40" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A40" s="6">
         <v>89</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="6">
         <v>2018</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="6">
         <v>30137196</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4" t="s">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="3">
+    <row r="41" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A41" s="6">
         <v>84</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="6">
         <v>2018</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="6">
         <v>30124753</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4" t="s">
+      <c r="L41" s="2"/>
+      <c r="M41" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="3">
+    <row r="42" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A42" s="6">
         <v>48</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="6">
         <v>2018</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="6">
         <v>30110579</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4" t="s">
+      <c r="L42" s="2"/>
+      <c r="M42" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="3">
+    <row r="43" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A43" s="6">
         <v>53</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="6">
         <v>2018</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="6">
         <v>30106636</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4" t="s">
+      <c r="L43" s="2"/>
+      <c r="M43" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="3">
+    <row r="44" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A44" s="6">
         <v>75</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="6">
         <v>2018</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="6">
         <v>29878040</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4" t="s">
+      <c r="L44" s="2"/>
+      <c r="M44" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="3">
+    <row r="45" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A45" s="6">
         <v>45</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="6">
         <v>2018</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="6">
         <v>29862411</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4" t="s">
+      <c r="L45" s="2"/>
+      <c r="M45" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="3">
+    <row r="46" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A46" s="6">
         <v>62</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="6">
         <v>2018</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="6">
         <v>29804905</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4" t="s">
+      <c r="L46" s="2"/>
+      <c r="M46" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="3">
+    <row r="47" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A47" s="6">
         <v>29</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="6">
         <v>2018</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="6">
         <v>29804902</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4" t="s">
+      <c r="L47" s="2"/>
+      <c r="M47" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="3">
+    <row r="48" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A48" s="6">
         <v>73</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="6">
         <v>2018</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="6">
         <v>29713086</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4" t="s">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="3">
+    <row r="49" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A49" s="6">
         <v>13</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="6">
         <v>2018</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="6">
         <v>29395269</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4" t="s">
+      <c r="L49" s="2"/>
+      <c r="M49" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="3">
+    <row r="50" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A50" s="6">
         <v>55</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="6">
         <v>2021</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="6">
         <v>29244528</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4" t="s">
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="M50" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="3">
+    <row r="51" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A51" s="6">
         <v>56</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="6">
         <v>2018</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="6">
         <v>29244528</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4" t="s">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="M51" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="3">
+    <row r="52" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A52" s="6">
         <v>14</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="6">
         <v>2018</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="6">
         <v>29039120</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="L52" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="M52" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="3">
+    <row r="53" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A53" s="6">
         <v>30</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="6">
         <v>2017</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="6">
         <v>28968163</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4" t="s">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="3">
+    <row r="54" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A54" s="6">
         <v>93</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="6">
         <v>2017</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="6">
         <v>28945867</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J54" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="L54" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="M54" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="3">
+    <row r="55" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A55" s="6">
         <v>88</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="6">
         <v>2017</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="6">
         <v>28881917</v>
       </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4" t="s">
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="3">
+    <row r="56" ht="17.25" customHeight="1" spans="1:12">
+      <c r="A56" s="6">
         <v>10</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="6">
         <v>2016</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="6">
         <v>28848668</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4" t="s">
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="M56" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="3">
+    </row>
+    <row r="57" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A57" s="6">
         <v>47</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="6">
         <v>2017</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="6">
         <v>28578601</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J57" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K57" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4" t="s">
+      <c r="L57" s="2"/>
+      <c r="M57" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="3">
+    <row r="58" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A58" s="6">
         <v>35</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="6">
         <v>2017</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="6">
         <v>28533223</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4" t="s">
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="3">
+    <row r="59" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A59" s="6">
         <v>15</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="6">
         <v>2017</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="6">
         <v>28429102</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J59" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="L59" s="4" t="s">
+      <c r="L59" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="M59" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="3">
+    <row r="60" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A60" s="6">
         <v>44</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="6">
         <v>2017</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="6">
         <v>28314691</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I60" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="J60" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="K60" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4" t="s">
+      <c r="L60" s="2"/>
+      <c r="M60" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="3">
+    <row r="61" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A61" s="6">
         <v>25</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="6">
         <v>2016</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="6">
         <v>27959613</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J61" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4" t="s">
+      <c r="L61" s="2"/>
+      <c r="M61" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="3">
+    <row r="62" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A62" s="6">
         <v>26</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="6">
         <v>2016</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="6">
         <v>27717303</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J62" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4" t="s">
+      <c r="L62" s="2"/>
+      <c r="M62" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="3">
+    <row r="63" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A63" s="6">
         <v>43</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="6">
         <v>2016</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="6">
         <v>27532364</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I63" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="J63" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4" t="s">
+      <c r="L63" s="2"/>
+      <c r="M63" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="3">
+    <row r="64" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A64" s="6">
         <v>91</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="6">
         <v>2016</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="6">
         <v>27331272</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="J64" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="L64" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="M64" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="3">
+    <row r="65" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A65" s="6">
         <v>20</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="6">
         <v>2016</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="6">
         <v>27161970</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="J65" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4" t="s">
+      <c r="L65" s="2"/>
+      <c r="M65" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="3">
+    <row r="66" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A66" s="6">
         <v>17</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="6">
         <v>2016</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="6">
         <v>26947331</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I66" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J66" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4" t="s">
+      <c r="L66" s="2"/>
+      <c r="M66" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="3">
+    <row r="67" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A67" s="6">
         <v>16</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="6">
         <v>2015</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="6">
         <v>26195705</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I67" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J67" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4" t="s">
+      <c r="L67" s="2"/>
+      <c r="M67" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="3">
+    <row r="68" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A68" s="6">
         <v>19</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="6">
         <v>2015</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="6">
         <v>25479913</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4" t="s">
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="M68" s="4" t="s">
+      <c r="M68" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="3">
+    <row r="69" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A69" s="6">
         <v>24</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="6">
         <v>2014</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="6">
         <v>25244983</v>
       </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4" t="s">
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
-      <c r="A70" s="3">
+    <row r="70" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A70" s="6">
         <v>40</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="6">
         <v>2014</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="6">
         <v>25231953</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I70" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K70" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="L70" s="4" t="s">
+      <c r="L70" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="M70" s="4" t="s">
+      <c r="M70" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
-      <c r="A71" s="3">
+    <row r="71" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A71" s="6">
         <v>59</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="6">
         <v>2014</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="6">
         <v>24793816</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I71" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="J71" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="K71" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4" t="s">
+      <c r="L71" s="2"/>
+      <c r="M71" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="3">
+    <row r="72" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A72" s="6">
         <v>51</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="6">
         <v>2013</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="6">
         <v>23894038</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="I72" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="J72" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="K72" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="L72" s="4" t="s">
+      <c r="L72" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="M72" s="4" t="s">
+      <c r="M72" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
-      <c r="A73" s="3">
+    <row r="73" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A73" s="6">
         <v>4</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="6">
         <v>2012</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="6">
         <v>23020162</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I73" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4" t="s">
+      <c r="L73" s="2"/>
+      <c r="M73" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
-      <c r="A74" s="3">
+    <row r="74" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A74" s="6">
         <v>58</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="6">
         <v>2012</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="6">
         <v>22393084</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I74" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J74" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K74" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4" t="s">
+      <c r="L74" s="2"/>
+      <c r="M74" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="3">
+    <row r="75" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A75" s="6">
         <v>39</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="6">
         <v>2012</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="6">
         <v>22149876</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I75" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="J75" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="K75" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4" t="s">
+      <c r="L75" s="2"/>
+      <c r="M75" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="3">
+    <row r="76" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A76" s="6">
         <v>52</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="6">
         <v>2012</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="6">
         <v>22149875</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I76" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J76" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="K76" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4" t="s">
+      <c r="L76" s="2"/>
+      <c r="M76" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
-      <c r="A77" s="3">
+    <row r="77" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A77" s="6">
         <v>22</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="6">
         <v>2011</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="6">
         <v>21709187</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="I77" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J77" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="K77" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4" t="s">
+      <c r="L77" s="2"/>
+      <c r="M77" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
-      <c r="A78" s="3">
+    <row r="78" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A78" s="6">
         <v>8</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="6">
         <v>2011</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="6">
         <v>21464403</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I78" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="J78" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="K78" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4" t="s">
+      <c r="L78" s="2"/>
+      <c r="M78" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
-      <c r="A79" s="3">
+    <row r="79" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A79" s="6">
         <v>7</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="6">
         <v>2011</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="6">
         <v>21376385</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I79" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="J79" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4" t="s">
+      <c r="L79" s="2"/>
+      <c r="M79" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="3">
+    <row r="80" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A80" s="6">
         <v>68</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="6">
         <v>2010</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="6">
         <v>21067385</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4" t="s">
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="3">
+    <row r="81" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A81" s="6">
         <v>65</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="6">
         <v>2010</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="6">
         <v>20124187</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I81" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="J81" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="K81" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4" t="s">
+      <c r="L81" s="2"/>
+      <c r="M81" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="3">
+    <row r="82" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A82" s="6">
         <v>54</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="6">
         <v>2009</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="6">
         <v>19786670</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I82" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4" t="s">
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="3">
+    <row r="83" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A83" s="6">
         <v>57</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="6">
         <v>2009</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="6">
         <v>19786658</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I83" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="J83" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4" t="s">
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="3">
+    <row r="84" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A84" s="6">
         <v>74</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="6">
         <v>2008</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="6">
         <v>18421049</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I84" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="J84" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K84" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4" t="s">
+      <c r="L84" s="2"/>
+      <c r="M84" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="3">
+    <row r="85" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A85" s="6">
         <v>76</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="6">
         <v>2005</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="6">
         <v>15846660</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="I85" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="J85" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="K85" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4" t="s">
+      <c r="L85" s="2"/>
+      <c r="M85" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
-      <c r="A86" s="3">
+    <row r="86" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A86" s="6">
         <v>49</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="6">
         <v>2004</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="6">
         <v>14997190</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4" t="s">
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
-      <c r="A87" s="3">
+    <row r="87" ht="17.25" customHeight="1" spans="1:13">
+      <c r="A87" s="6">
         <v>94</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="6">
         <v>2001</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="6">
         <v>11418871</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4" t="s">
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="3">
+    <row r="88" ht="17.25" customHeight="1" spans="1:11">
+      <c r="A88" s="6">
         <v>31</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="6">
         <v>2021</v>
       </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="4" t="s">
+      <c r="F88" s="2"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I88" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="J88" s="4" t="s">
+      <c r="J88" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="K88" s="4" t="s">
+      <c r="K88" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="3">
+    </row>
+    <row r="89" ht="17.25" customHeight="1" spans="1:11">
+      <c r="A89" s="6">
         <v>34</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="6">
         <v>2020</v>
       </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="4" t="s">
+      <c r="F89" s="2"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I89" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="J89" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="K89" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="3">
+    </row>
+    <row r="90" ht="17.25" customHeight="1" spans="1:8">
+      <c r="A90" s="6">
         <v>50</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="4" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="3">
+    </row>
+    <row r="91" ht="17.25" customHeight="1" spans="1:11">
+      <c r="A91" s="6">
         <v>60</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="6">
         <v>2021</v>
       </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="4" t="s">
+      <c r="F91" s="2"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I91" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J91" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="K91" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="3">
+    </row>
+    <row r="92" ht="17.25" customHeight="1" spans="1:11">
+      <c r="A92" s="6">
         <v>64</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="4" t="s">
+      <c r="E92" s="3"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="I92" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="J92" s="4" t="s">
+      <c r="J92" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="K92" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="3">
+    </row>
+    <row r="93" ht="17.25" customHeight="1" spans="1:11">
+      <c r="A93" s="6">
         <v>72</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="6">
         <v>2021</v>
       </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="4" t="s">
+      <c r="F93" s="2"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="I93" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="J93" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="K93" s="4" t="s">
+      <c r="K93" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="3">
+    </row>
+    <row r="94" ht="17.25" customHeight="1" spans="1:11">
+      <c r="A94" s="6">
         <v>78</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="4" t="s">
+      <c r="E94" s="3"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I94" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="J94" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="K94" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="3">
+    </row>
+    <row r="95" ht="17.25" customHeight="1" spans="1:3">
+      <c r="A95" s="6">
         <v>90</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4" t="s">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>